--- a/data/trans_dic/POLIPATOLOGIA_5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,83</t>
+          <t>1,3; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,32</t>
+          <t>2,23; 7,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,76</t>
+          <t>2,71; 7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,55</t>
+          <t>1,26; 4,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,02</t>
+          <t>3,6; 10,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,32</t>
+          <t>5,98; 13,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 18,13</t>
+          <t>9,89; 18,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,02</t>
+          <t>4,25; 8,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,25</t>
+          <t>2,79; 6,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,06</t>
+          <t>4,81; 9,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,92</t>
+          <t>7,03; 12,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,6</t>
+          <t>3,01; 5,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,19</t>
+          <t>1,71; 5,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,58</t>
+          <t>3,1; 7,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,74</t>
+          <t>0,69; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,32</t>
+          <t>3,87; 8,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,64</t>
+          <t>9,03; 14,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,31</t>
+          <t>6,94; 12,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,26</t>
+          <t>3,93; 8,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,51</t>
+          <t>11,47; 16,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,08</t>
+          <t>5,85; 9,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,25</t>
+          <t>5,7; 9,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,0</t>
+          <t>2,64; 5,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,46</t>
+          <t>8,11; 11,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,61</t>
+          <t>0,3; 2,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>1,24; 5,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,17</t>
+          <t>0,74; 3,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,88</t>
+          <t>9,17; 15,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,78</t>
+          <t>1,02; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,88</t>
+          <t>5,63; 12,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,8</t>
+          <t>3,71; 9,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,51</t>
+          <t>14,38; 20,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,14</t>
+          <t>0,99; 3,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,72</t>
+          <t>4,06; 7,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,89</t>
+          <t>2,54; 5,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,08</t>
+          <t>12,86; 17,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,85</t>
+          <t>1,22; 4,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,57</t>
+          <t>2,27; 6,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,8</t>
+          <t>3,23; 8,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 14,7</t>
+          <t>7,62; 14,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,67</t>
+          <t>2,5; 6,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,8</t>
+          <t>11,24; 18,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 17,64</t>
+          <t>10,06; 17,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,8</t>
+          <t>7,83; 16,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,92</t>
+          <t>2,22; 5,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,41</t>
+          <t>7,11; 11,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,8</t>
+          <t>7,28; 11,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 14,61</t>
+          <t>9,02; 14,84</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,04</t>
+          <t>0,85; 5,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,0</t>
+          <t>5,03; 13,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,01</t>
+          <t>2,24; 8,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,37</t>
+          <t>6,78; 13,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,66</t>
+          <t>2,56; 10,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 23,4</t>
+          <t>12,77; 23,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,56</t>
+          <t>6,92; 15,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 19,77</t>
+          <t>7,57; 19,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,06</t>
+          <t>2,16; 5,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,42</t>
+          <t>9,78; 17,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,09</t>
+          <t>5,3; 10,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,78</t>
+          <t>8,24; 15,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,64 +1430,64 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>2,64; 7,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,48</t>
+          <t>1,89; 6,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,56</t>
+          <t>13,65; 20,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,6</t>
+          <t>2,3; 7,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,11</t>
+          <t>4,03; 10,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,26</t>
+          <t>4,1; 10,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,68; 32,12</t>
+          <t>23,94; 31,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,64</t>
+          <t>1,03; 3,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,31</t>
+          <t>4,05; 7,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,3</t>
+          <t>3,5; 7,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,97</t>
+          <t>19,53; 24,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,8</t>
+          <t>2,18; 4,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,98</t>
+          <t>2,0; 4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,82</t>
+          <t>2,72; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,73</t>
+          <t>7,25; 11,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,97</t>
+          <t>4,17; 7,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,42</t>
+          <t>7,71; 12,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,16</t>
+          <t>8,46; 13,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,88; 71,35</t>
+          <t>22,07; 67,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,7</t>
+          <t>3,5; 5,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,22</t>
+          <t>5,2; 8,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,2</t>
+          <t>6,15; 9,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,61; 54,08</t>
+          <t>15,71; 56,8</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,08</t>
+          <t>5,48; 8,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,07</t>
+          <t>0,99; 2,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,05</t>
+          <t>2,3; 4,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,98</t>
+          <t>2,14; 7,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,38</t>
+          <t>6,87; 11,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,16</t>
+          <t>6,23; 10,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,25</t>
+          <t>8,77; 13,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,92</t>
+          <t>11,42; 16,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,24</t>
+          <t>6,47; 9,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,27</t>
+          <t>4,0; 6,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,69</t>
+          <t>6,0; 8,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,58</t>
+          <t>5,37; 10,4</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,83; 4,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,88; 4,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,07</t>
+          <t>6,22; 8,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,87; 7,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,81; 10,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,75; 10,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,68; 34,42</t>
+          <t>15,76; 35,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,61; 5,69</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,25; 7,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,06; 7,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,19</t>
+          <t>11,61; 23,57</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7072</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12758</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13823</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7592</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26072</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38772</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17255</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23218</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38829</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52596</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24847</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3552; 13488</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6560; 21452</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7972; 22696</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3926; 14389</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9392; 26149</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17180; 38374</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28553; 52382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12319; 23599</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14910; 34178</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28008; 53851</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40966; 70925</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18122; 33007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15459</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25219</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7652</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29580</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57899</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49262</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30353</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>70508</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>73357</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74481</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38005</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100089</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8412; 25791</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15647; 38510</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3463; 14931</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20086; 42337</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45508; 72581</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36368; 64194</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20560; 43990</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59091; 83469</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58340; 91043</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58708; 92807</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27029; 53420</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83773; 119282</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9108</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38352</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28669</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20782</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60029</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11832</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37777</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25666</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98381</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>946; 9259</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4015; 19186</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2355; 10996</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28994; 49625</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3434; 16063</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19214; 41937</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12482; 32601</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50221; 71358</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6491; 19938</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27009; 52231</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16633; 38432</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85514; 114164</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9228</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15368</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19501</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33405</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15695</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>54962</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51804</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62668</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24923</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>71305</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>96073</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4377; 17481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8477; 24102</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11961; 29826</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23832; 45222</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9283; 24052</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43702; 71451</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38942; 67105</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37245; 80225</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16231; 37364</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>54223; 86971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55094; 89828</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71078; 116951</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18635</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17276</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10447</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38301</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23124</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38630</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15084</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>56935</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>32629</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>55906</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1736; 10996</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10705; 28503</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4734; 17122</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12126; 24269</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5319; 20823</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28052; 51689</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15134; 33054</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19592; 50187</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8891; 24528</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42266; 73750</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22763; 43478</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36046; 68311</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13464</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9883</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>45665</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12061</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18648</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18096</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>71473</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12061</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32112</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27979</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>117138</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7230; 21131</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4978; 17012</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36800; 55205</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6399; 21147</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11295; 28282</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11198; 28128</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>61546; 82119</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5648; 19235</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22416; 44240</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18747; 38882</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>102884; 131335</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19782</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>21246</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27437</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>58904</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>37055</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>68542</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>74432</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>352190</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56836</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>89788</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>101868</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>411093</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13402; 30355</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13257; 31965</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17858; 39346</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>45252; 74465</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>26609; 49664</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53523; 87472</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>58484; 91254</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>187449; 571307</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>43887; 71645</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>70600; 110343</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>82835; 124528</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>231564; 836972</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>51923</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14055</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>26799</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>44462</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>69152</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>66551</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>89828</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>95556</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>121075</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>80606</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>116628</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>140019</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>40729; 66837</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7709; 22774</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>17893; 38234</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>19844; 65615</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>53803; 88814</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>51287; 84885</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>72442; 109715</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>81954; 115015</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>98793; 144123</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>64063; 99412</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>96221; 143059</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>88407; 171277</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>111838</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>129852</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>275237</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>226549</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>351006</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>347191</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>768308</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>338386</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>480858</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>466675</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1043545</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>92695; 134837</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>107465; 153734</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>97702; 142580</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>215175; 309745</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>198422; 260679</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>313531; 388151</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>310099; 386289</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>585192; 1319657</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>306644; 378429</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>436314; 523549</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>420266; 508712</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>832624; 1690428</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>